--- a/vote/root/doc/廊坊市所有市直单位分类情况表（完整版）.xlsx
+++ b/vote/root/doc/廊坊市所有市直单位分类情况表（完整版）.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="274">
   <si>
     <t>市直单位清单</t>
   </si>
@@ -318,6 +318,531 @@
   </si>
   <si>
     <t>管道局中学</t>
+  </si>
+  <si>
+    <t>1、市纪委（监察局）</t>
+  </si>
+  <si>
+    <t>2、市委办公室</t>
+  </si>
+  <si>
+    <t>3、市政府办公室</t>
+  </si>
+  <si>
+    <t>4、市人大机关</t>
+  </si>
+  <si>
+    <t>5、市政协机关</t>
+  </si>
+  <si>
+    <t>6、市委组织部</t>
+  </si>
+  <si>
+    <t>7、市委宣传部</t>
+  </si>
+  <si>
+    <t>8、市委统战部</t>
+  </si>
+  <si>
+    <t>9、市委农工部</t>
+  </si>
+  <si>
+    <t>10、市委政法委</t>
+  </si>
+  <si>
+    <t>11、市委研究室</t>
+  </si>
+  <si>
+    <t>12、市直工委</t>
+  </si>
+  <si>
+    <t>13、市编办</t>
+  </si>
+  <si>
+    <t>14、市信访局</t>
+  </si>
+  <si>
+    <t>15、市委老干部局</t>
+  </si>
+  <si>
+    <t>16、市委党史研究室</t>
+  </si>
+  <si>
+    <t>17、市委党校</t>
+  </si>
+  <si>
+    <t>18、市接待办</t>
+  </si>
+  <si>
+    <t>19、市总工会</t>
+  </si>
+  <si>
+    <t>20、团市委</t>
+  </si>
+  <si>
+    <t>21、市妇联</t>
+  </si>
+  <si>
+    <t>22、市文联</t>
+  </si>
+  <si>
+    <t>23、市工商联</t>
+  </si>
+  <si>
+    <t>24、市科协</t>
+  </si>
+  <si>
+    <t>25、市残联</t>
+  </si>
+  <si>
+    <t>26、市贸促会</t>
+  </si>
+  <si>
+    <t>27、市经济研究中心</t>
+  </si>
+  <si>
+    <t>28、市档案局</t>
+  </si>
+  <si>
+    <t>29、市发改委</t>
+  </si>
+  <si>
+    <t>30、市科技局</t>
+  </si>
+  <si>
+    <t>31、市工信局</t>
+  </si>
+  <si>
+    <t>32、市财政局</t>
+  </si>
+  <si>
+    <t>33、市农开办</t>
+  </si>
+  <si>
+    <t>34、市交通局</t>
+  </si>
+  <si>
+    <t>35、市水务局</t>
+  </si>
+  <si>
+    <t>36、市农业局</t>
+  </si>
+  <si>
+    <t>37、市林业局</t>
+  </si>
+  <si>
+    <t>38、市商务局</t>
+  </si>
+  <si>
+    <t>39、市国资委</t>
+  </si>
+  <si>
+    <t>40、市统计局</t>
+  </si>
+  <si>
+    <t>41、市旅游局</t>
+  </si>
+  <si>
+    <t>42、市供销社</t>
+  </si>
+  <si>
+    <t>43、统筹办</t>
+  </si>
+  <si>
+    <t>44、市中级人民法院</t>
+  </si>
+  <si>
+    <t>45、市人民检察院</t>
+  </si>
+  <si>
+    <t>46、市公安局</t>
+  </si>
+  <si>
+    <t>47、市司法局</t>
+  </si>
+  <si>
+    <t>48、市环保局</t>
+  </si>
+  <si>
+    <t>49、市房管局</t>
+  </si>
+  <si>
+    <t>50、市审计局</t>
+  </si>
+  <si>
+    <t>51、市安监局</t>
+  </si>
+  <si>
+    <t>52、市药监局</t>
+  </si>
+  <si>
+    <t>53、市物价局</t>
+  </si>
+  <si>
+    <t>54、市建设局</t>
+  </si>
+  <si>
+    <t>55、市城乡规划局</t>
+  </si>
+  <si>
+    <t>56、市综合执法局</t>
+  </si>
+  <si>
+    <t>57、市工商局</t>
+  </si>
+  <si>
+    <t>58、市质监局</t>
+  </si>
+  <si>
+    <t>59、市教育局</t>
+  </si>
+  <si>
+    <t>60、市民宗局</t>
+  </si>
+  <si>
+    <t>61、市民政局</t>
+  </si>
+  <si>
+    <t>62、市人社局</t>
+  </si>
+  <si>
+    <t>63、市文广新局</t>
+  </si>
+  <si>
+    <t>64、市卫计委</t>
+  </si>
+  <si>
+    <t>65、市体育局</t>
+  </si>
+  <si>
+    <t>66、市粮食局</t>
+  </si>
+  <si>
+    <t>67、市外事办</t>
+  </si>
+  <si>
+    <t>68、市地震局</t>
+  </si>
+  <si>
+    <t>69、市住房公积金</t>
+  </si>
+  <si>
+    <t>70、步行街管委会</t>
+  </si>
+  <si>
+    <t>71、市机场办</t>
+  </si>
+  <si>
+    <t>72、市政务办</t>
+  </si>
+  <si>
+    <t>73、廊坊日报社</t>
+  </si>
+  <si>
+    <t>74、廊坊广播电视台</t>
+  </si>
+  <si>
+    <t>75、廊坊职技学院</t>
+  </si>
+  <si>
+    <t>76、燕京职技学院</t>
+  </si>
+  <si>
+    <t>77、廊坊卫生学院</t>
+  </si>
+  <si>
+    <t>78、市电子信息学校</t>
+  </si>
+  <si>
+    <t>79、市电大</t>
+  </si>
+  <si>
+    <t>80、市高级技工学校</t>
+  </si>
+  <si>
+    <t>81、市体校</t>
+  </si>
+  <si>
+    <t>82、市农科院</t>
+  </si>
+  <si>
+    <t>83、市医院</t>
+  </si>
+  <si>
+    <t>84、市中医院</t>
+  </si>
+  <si>
+    <t>85、市第三医院</t>
+  </si>
+  <si>
+    <t>86、市一中</t>
+  </si>
+  <si>
+    <t>87、管道局中学</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z01" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z01" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z01" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z01" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z01" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;&lt;td&gt;&lt;p class=txt&gt;&lt;b class=blue&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z02" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z02" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z02" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z02" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z02" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z03" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z03" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z03" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z03" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z03" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z04" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z04" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z04" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z04" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z04" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z05" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z05" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z05" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z05" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z05" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z06" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z06" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z06" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z06" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z06" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z07" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z07" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z07" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z07" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z07" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z08" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z08" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z08" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z08" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z08" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z09" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z09" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z09" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z09" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z09" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z10" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z10" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z10" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z10" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z10" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z11" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z11" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z11" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z11" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z11" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z12" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z12" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z12" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z12" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z12" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z13" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z13" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z13" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z13" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z13" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z14" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z14" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z14" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z14" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z14" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z15" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z15" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z15" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z15" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z15" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z16" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z16" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z16" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z16" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z16" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z17" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z17" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z17" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z17" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z17" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z18" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z18" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z18" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z18" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z18" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z19" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z19" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z19" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z19" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z19" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z20" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z20" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z20" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z20" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z20" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z21" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z21" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z21" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z21" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z21" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z22" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z22" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z22" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z22" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z22" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z23" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z23" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z23" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z23" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z23" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z24" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z24" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z24" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z24" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z24" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z25" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z25" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z25" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z25" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z25" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z26" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z26" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z26" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z26" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z26" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z27" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z27" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z27" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z27" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z27" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z28" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z28" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z28" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z28" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z28" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z29" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z29" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z29" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z29" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z29" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z30" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z30" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z30" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z30" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z30" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z31" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z31" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z31" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z31" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z31" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z32" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z32" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z32" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z32" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z32" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z33" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z33" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z33" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z33" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z33" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z34" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z34" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z34" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z34" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z34" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z35" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z35" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z35" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z35" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z35" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z36" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z36" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z36" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z36" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z36" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z37" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z37" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z37" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z37" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z37" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z38" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z38" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z38" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z38" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z38" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z39" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z39" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z39" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z39" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z39" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z40" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z40" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z40" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z40" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z40" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z41" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z41" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z41" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z41" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z41" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z42" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z42" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z42" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z42" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z42" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z43" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z43" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z43" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z43" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z43" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z44" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z44" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z44" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z44" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z44" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z45" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z45" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z45" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z45" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z45" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z46" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z46" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z46" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z46" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z46" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z47" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z47" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z47" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z47" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z47" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z48" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z48" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z48" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z48" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z48" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z49" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z49" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z49" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z49" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z49" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z50" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z50" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z50" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z50" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z50" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z51" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z51" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z51" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z51" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z51" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z52" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z52" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z52" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z52" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z52" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z53" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z53" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z53" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z53" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z53" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z54" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z54" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z54" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z54" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z54" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z55" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z55" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z55" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z55" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z55" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z56" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z56" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z56" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z56" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z56" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z57" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z57" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z57" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z57" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z57" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z58" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z58" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z58" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z58" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z58" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z59" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z59" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z59" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z59" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z59" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z60" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z60" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z60" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z60" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z60" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z61" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z61" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z61" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z61" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z61" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z62" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z62" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z62" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z62" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z62" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z63" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z63" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z63" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z63" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z63" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z64" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z64" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z64" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z64" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z64" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z65" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z65" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z65" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z65" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z65" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z66" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z66" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z66" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z66" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z66" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z67" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z67" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z67" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z67" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z67" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z68" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z68" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z68" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z68" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z68" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z69" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z69" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z69" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z69" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z69" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z70" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z70" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z70" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z70" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z70" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z71" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z71" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z71" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z71" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z71" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z72" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z72" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z72" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z72" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z72" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z73" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z73" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z73" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z73" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z73" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z74" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z74" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z74" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z74" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z74" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z75" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z75" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z75" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z75" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z75" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z76" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z76" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z76" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z76" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z76" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z77" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z77" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z77" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z77" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z77" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z78" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z78" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z78" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z78" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z78" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z79" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z79" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z79" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z79" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z79" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z80" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z80" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z80" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z80" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z80" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z81" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z81" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z81" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z81" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z81" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z82" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z82" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z82" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z82" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z82" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z83" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z83" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z83" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z83" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z83" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z84" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z84" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z84" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z84" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z84" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z85" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z85" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z85" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z85" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z85" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z86" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z86" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z86" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z86" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z86" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/b&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p class=select&gt;&lt;label&gt;&lt;input type=radio name="z87" value=4/&gt;优秀&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z87" value=3/&gt;良好&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z87" value=2/&gt;一般&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z87" value=1/&gt;较差&lt;/label&gt;&amp;nbsp;&lt;label&gt;&lt;input type=radio name="z87" value=0 checked /&gt;不了解&lt;/label&gt;&amp;nbsp;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</t>
   </si>
 </sst>
 </file>
@@ -1520,711 +2045,1496 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E1:G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="E1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="E2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="E3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="E4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="E5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="E6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="E7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="E8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="E9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="E10" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="E11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="E12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="E13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="E14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="E15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="E16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="E17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="E18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="E19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="E20" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="E21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="E22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="E23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="E24" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="E25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="E26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="E27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="E28" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="E29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="E30" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="E31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="E32" t="s">
+        <v>187</v>
+      </c>
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="E33" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="E34" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="E35" t="s">
+        <v>187</v>
+      </c>
+      <c r="F35" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="E36" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="E37" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="E38" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="E39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F39" t="s">
+        <v>137</v>
+      </c>
+      <c r="G39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="E40" t="s">
+        <v>187</v>
+      </c>
+      <c r="F40" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="E41" t="s">
+        <v>187</v>
+      </c>
+      <c r="F41" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="E42" t="s">
+        <v>187</v>
+      </c>
+      <c r="F42" t="s">
+        <v>140</v>
+      </c>
+      <c r="G42" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="E43" t="s">
+        <v>187</v>
+      </c>
+      <c r="F43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="E44" t="s">
+        <v>187</v>
+      </c>
+      <c r="F44" t="s">
+        <v>142</v>
+      </c>
+      <c r="G44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="E45" t="s">
+        <v>187</v>
+      </c>
+      <c r="F45" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="E46" t="s">
+        <v>187</v>
+      </c>
+      <c r="F46" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="E47" t="s">
+        <v>187</v>
+      </c>
+      <c r="F47" t="s">
+        <v>145</v>
+      </c>
+      <c r="G47" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="E48" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" t="s">
+        <v>146</v>
+      </c>
+      <c r="G48" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="E49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="E50" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" t="s">
+        <v>148</v>
+      </c>
+      <c r="G50" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="E51" t="s">
+        <v>187</v>
+      </c>
+      <c r="F51" t="s">
+        <v>149</v>
+      </c>
+      <c r="G51" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="E52" t="s">
+        <v>187</v>
+      </c>
+      <c r="F52" t="s">
+        <v>150</v>
+      </c>
+      <c r="G52" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>53</v>
       </c>
       <c r="B53" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="E53" t="s">
+        <v>187</v>
+      </c>
+      <c r="F53" t="s">
+        <v>151</v>
+      </c>
+      <c r="G53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>54</v>
       </c>
       <c r="B54" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="E54" t="s">
+        <v>187</v>
+      </c>
+      <c r="F54" t="s">
+        <v>152</v>
+      </c>
+      <c r="G54" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="E55" t="s">
+        <v>187</v>
+      </c>
+      <c r="F55" t="s">
+        <v>153</v>
+      </c>
+      <c r="G55" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>56</v>
       </c>
       <c r="B56" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="E56" t="s">
+        <v>187</v>
+      </c>
+      <c r="F56" t="s">
+        <v>154</v>
+      </c>
+      <c r="G56" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>57</v>
       </c>
       <c r="B57" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="E57" t="s">
+        <v>187</v>
+      </c>
+      <c r="F57" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>58</v>
       </c>
       <c r="B58" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="E58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58" t="s">
+        <v>156</v>
+      </c>
+      <c r="G58" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>59</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="E59" t="s">
+        <v>187</v>
+      </c>
+      <c r="F59" t="s">
+        <v>157</v>
+      </c>
+      <c r="G59" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>60</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="E60" t="s">
+        <v>187</v>
+      </c>
+      <c r="F60" t="s">
+        <v>158</v>
+      </c>
+      <c r="G60" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>61</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="E61" t="s">
+        <v>187</v>
+      </c>
+      <c r="F61" t="s">
+        <v>159</v>
+      </c>
+      <c r="G61" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>62</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="E62" t="s">
+        <v>187</v>
+      </c>
+      <c r="F62" t="s">
+        <v>160</v>
+      </c>
+      <c r="G62" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>63</v>
       </c>
       <c r="B63" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="E63" t="s">
+        <v>187</v>
+      </c>
+      <c r="F63" t="s">
+        <v>161</v>
+      </c>
+      <c r="G63" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>64</v>
       </c>
       <c r="B64" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="E64" t="s">
+        <v>187</v>
+      </c>
+      <c r="F64" t="s">
+        <v>162</v>
+      </c>
+      <c r="G64" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="E65" t="s">
+        <v>187</v>
+      </c>
+      <c r="F65" t="s">
+        <v>163</v>
+      </c>
+      <c r="G65" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>66</v>
       </c>
       <c r="B66" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="E66" t="s">
+        <v>187</v>
+      </c>
+      <c r="F66" t="s">
+        <v>164</v>
+      </c>
+      <c r="G66" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>67</v>
       </c>
       <c r="B67" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="E67" t="s">
+        <v>187</v>
+      </c>
+      <c r="F67" t="s">
+        <v>165</v>
+      </c>
+      <c r="G67" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>68</v>
       </c>
       <c r="B68" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="E68" t="s">
+        <v>187</v>
+      </c>
+      <c r="F68" t="s">
+        <v>166</v>
+      </c>
+      <c r="G68" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>69</v>
       </c>
       <c r="B69" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="E69" t="s">
+        <v>187</v>
+      </c>
+      <c r="F69" t="s">
+        <v>167</v>
+      </c>
+      <c r="G69" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>70</v>
       </c>
       <c r="B70" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="E70" t="s">
+        <v>187</v>
+      </c>
+      <c r="F70" t="s">
+        <v>168</v>
+      </c>
+      <c r="G70" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>71</v>
       </c>
       <c r="B71" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="E71" t="s">
+        <v>187</v>
+      </c>
+      <c r="F71" t="s">
+        <v>169</v>
+      </c>
+      <c r="G71" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>72</v>
       </c>
       <c r="B72" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="E72" t="s">
+        <v>187</v>
+      </c>
+      <c r="F72" t="s">
+        <v>170</v>
+      </c>
+      <c r="G72" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>73</v>
       </c>
       <c r="B73" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="E73" t="s">
+        <v>187</v>
+      </c>
+      <c r="F73" t="s">
+        <v>171</v>
+      </c>
+      <c r="G73" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>74</v>
       </c>
       <c r="B74" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="E74" t="s">
+        <v>187</v>
+      </c>
+      <c r="F74" t="s">
+        <v>172</v>
+      </c>
+      <c r="G74" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>75</v>
       </c>
       <c r="B75" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="E75" t="s">
+        <v>187</v>
+      </c>
+      <c r="F75" t="s">
+        <v>173</v>
+      </c>
+      <c r="G75" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>76</v>
       </c>
       <c r="B76" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="E76" t="s">
+        <v>187</v>
+      </c>
+      <c r="F76" t="s">
+        <v>174</v>
+      </c>
+      <c r="G76" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>77</v>
       </c>
       <c r="B77" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="E77" t="s">
+        <v>187</v>
+      </c>
+      <c r="F77" t="s">
+        <v>175</v>
+      </c>
+      <c r="G77" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>78</v>
       </c>
       <c r="B78" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="E78" t="s">
+        <v>187</v>
+      </c>
+      <c r="F78" t="s">
+        <v>176</v>
+      </c>
+      <c r="G78" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>79</v>
       </c>
       <c r="B79" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="E79" t="s">
+        <v>187</v>
+      </c>
+      <c r="F79" t="s">
+        <v>177</v>
+      </c>
+      <c r="G79" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>80</v>
       </c>
       <c r="B80" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="E80" t="s">
+        <v>187</v>
+      </c>
+      <c r="F80" t="s">
+        <v>178</v>
+      </c>
+      <c r="G80" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>81</v>
       </c>
       <c r="B81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="E81" t="s">
+        <v>187</v>
+      </c>
+      <c r="F81" t="s">
+        <v>179</v>
+      </c>
+      <c r="G81" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>82</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="E82" t="s">
+        <v>187</v>
+      </c>
+      <c r="F82" t="s">
+        <v>180</v>
+      </c>
+      <c r="G82" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>83</v>
       </c>
       <c r="B83" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="E83" t="s">
+        <v>187</v>
+      </c>
+      <c r="F83" t="s">
+        <v>181</v>
+      </c>
+      <c r="G83" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>84</v>
       </c>
       <c r="B84" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="E84" t="s">
+        <v>187</v>
+      </c>
+      <c r="F84" t="s">
+        <v>182</v>
+      </c>
+      <c r="G84" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>85</v>
       </c>
       <c r="B85" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="E85" t="s">
+        <v>187</v>
+      </c>
+      <c r="F85" t="s">
+        <v>183</v>
+      </c>
+      <c r="G85" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>86</v>
       </c>
       <c r="B86" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="E86" t="s">
+        <v>187</v>
+      </c>
+      <c r="F86" t="s">
+        <v>184</v>
+      </c>
+      <c r="G86" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>87</v>
       </c>
       <c r="B87" t="s">
         <v>98</v>
+      </c>
+      <c r="E87" t="s">
+        <v>187</v>
+      </c>
+      <c r="F87" t="s">
+        <v>185</v>
+      </c>
+      <c r="G87" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
